--- a/data/trans_camb/P1421-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1421-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.061844723571292</v>
+        <v>-1.157863091630482</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.693921661064928</v>
+        <v>-1.614997826217174</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.09908675566453753</v>
+        <v>-0.4073185868092838</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.125809698101393</v>
+        <v>-2.358009871024182</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.974002718149953</v>
+        <v>-3.329608103569754</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.911690335178805</v>
+        <v>2.975863262122123</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.300420328496982</v>
+        <v>-1.147546182131944</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.873636557052441</v>
+        <v>-2.140158110451438</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.960580632151335</v>
+        <v>1.913223855459035</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.893397619114261</v>
+        <v>1.886589069731591</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.12094241433652</v>
+        <v>1.113966618533034</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.982947923920786</v>
+        <v>6.074196242690478</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.581579027258105</v>
+        <v>2.797046266982811</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.200346177161886</v>
+        <v>0.9404190949285539</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.42929438765659</v>
+        <v>12.25614949259056</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.613157735886312</v>
+        <v>1.782900600887809</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5232663760676187</v>
+        <v>0.4083820414323788</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.016401465607264</v>
+        <v>7.064692264624838</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.2868593084556786</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2.004437634508594</v>
+        <v>2.004437634508595</v>
       </c>
     </row>
     <row r="8">
@@ -780,29 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6965078216365304</v>
-      </c>
-      <c r="D8" s="6" t="inlineStr"/>
+        <v>-0.7096829945307707</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5153616362865825</v>
+        <v>-0.6674529007303245</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5092717695205419</v>
+        <v>-0.5436179327248857</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7150403573784861</v>
+        <v>-0.7444540351505168</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5586164328868288</v>
+        <v>0.7143523176727288</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4596813728631213</v>
+        <v>-0.4228471043993695</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6773705665958094</v>
+        <v>-0.6802402225243701</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.669059915305207</v>
+        <v>0.6909727269610063</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.418166059093236</v>
-      </c>
-      <c r="D9" s="6" t="inlineStr"/>
+        <v>4.013660685758468</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>3.099390192348014</v>
+      </c>
       <c r="E9" s="6" t="n">
-        <v>13.75960827034261</v>
+        <v>11.95348098409527</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.18701720620288</v>
+        <v>1.288466780475825</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7260215476535127</v>
+        <v>0.5271274240505179</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.383181284874975</v>
+        <v>5.242940110813748</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.042671571823236</v>
+        <v>1.154613721908984</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4009206335253355</v>
+        <v>0.361954543849683</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4.273431538162519</v>
+        <v>4.567375235314571</v>
       </c>
     </row>
     <row r="10">
@@ -856,7 +860,7 @@
         <v>-1.345207450801551</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.528662485591337</v>
+        <v>2.528662485591338</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-4.042701241087298</v>
@@ -865,7 +869,7 @@
         <v>-0.9815908053048578</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.872122713844521</v>
+        <v>2.872122713844523</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-2.363522762114109</v>
@@ -885,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.30862550110654</v>
+        <v>-2.355188488511367</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.757426837755609</v>
+        <v>-2.647582329814045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07286633556212799</v>
+        <v>0.1529431376347107</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.652422531745518</v>
+        <v>-6.644273938496329</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.033220781806346</v>
+        <v>-3.816568934073429</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.6481706215123539</v>
+        <v>-0.5611463943621393</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.705443839230739</v>
+        <v>-3.723287909652253</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.721098507461117</v>
+        <v>-2.521180012197507</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8085956641005724</v>
+        <v>1.06467459289056</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2033600463053894</v>
+        <v>0.2112449545823214</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.2007411815593782</v>
+        <v>-0.06391316988714404</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.478843316220651</v>
+        <v>5.534131553181914</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.49572696148676</v>
+        <v>-1.256514053873466</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.891522656755773</v>
+        <v>2.274791740584329</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.615605047138145</v>
+        <v>6.51923944293527</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.9006259776823178</v>
+        <v>-0.8323784259554071</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5200473240703725</v>
+        <v>0.5810750947673279</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.165998290360012</v>
+        <v>5.542980575070543</v>
       </c>
     </row>
     <row r="13">
@@ -961,7 +965,7 @@
         <v>-0.6516672302560622</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.224975729398343</v>
+        <v>1.224975729398344</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.5317623954322531</v>
@@ -970,7 +974,7 @@
         <v>-0.1291149275781752</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3777887019617056</v>
+        <v>0.3777887019617057</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.512743971314597</v>
@@ -990,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8161634557792063</v>
+        <v>-0.8180224402340417</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.9228998214110822</v>
+        <v>-0.9263382931936428</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0537161275386745</v>
+        <v>0.03240060195006818</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7344335939532473</v>
+        <v>-0.7128803938543417</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4337821073979816</v>
+        <v>-0.430843084629178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.08846378096055228</v>
+        <v>-0.07820222761922774</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6896665202617881</v>
+        <v>-0.6863014319279692</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4958019636606283</v>
+        <v>-0.4666063849112415</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1436914740007301</v>
+        <v>0.1847389006299058</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1755320553121158</v>
+        <v>0.2493243799815813</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2162830624979643</v>
+        <v>0.151569442608556</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.676038089825239</v>
+        <v>3.878042611761007</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2308271669754398</v>
+        <v>-0.1806160849977019</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3159435277520059</v>
+        <v>0.4029353354622758</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.042882661680484</v>
+        <v>1.046410593488061</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2442043510513816</v>
+        <v>-0.2269670863693497</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1475463041091132</v>
+        <v>0.1623494412521659</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.306936385763291</v>
+        <v>1.44427674113403</v>
       </c>
     </row>
     <row r="16">
@@ -1079,7 +1083,7 @@
         <v>-3.036187728565119</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.413615933669375</v>
+        <v>4.413615933669377</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.2340798975488646</v>
@@ -1099,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.070931322039183</v>
+        <v>-1.938284793998476</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.396381290137345</v>
+        <v>-2.367248519948774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8946588019964863</v>
+        <v>0.8089944638505813</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.549266104368896</v>
+        <v>-1.720127501190929</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.288180717037093</v>
+        <v>-5.413401896433444</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.702673629070632</v>
+        <v>1.520280234118132</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.268566891638011</v>
+        <v>-1.186459362067877</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.367723767562409</v>
+        <v>-3.485635448243614</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.868642879292769</v>
+        <v>1.82424385272025</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9310856410603897</v>
+        <v>0.9597397597833737</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.371702738441464</v>
+        <v>0.4005599358854701</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.22583037155109</v>
+        <v>5.221445089041466</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.11969692334181</v>
+        <v>3.632711125030105</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.6404636668152119</v>
+        <v>-0.8416323696667344</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.111185540918842</v>
+        <v>7.241319916109481</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.920978632447541</v>
+        <v>1.842158439250065</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.6823646428029293</v>
+        <v>-0.7443445429002448</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.429852441545055</v>
+        <v>5.473787647835427</v>
       </c>
     </row>
     <row r="19">
@@ -1184,7 +1188,7 @@
         <v>-0.4987773111497848</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7250577647528499</v>
+        <v>0.7250577647528503</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.0559292625653536</v>
@@ -1204,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7002505686650488</v>
+        <v>-0.6790120965497211</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8123613813096471</v>
+        <v>-0.8257750174297511</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2345906425529273</v>
+        <v>0.2333897801410053</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2094413770919083</v>
+        <v>-0.224503685291622</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7148496675331809</v>
+        <v>-0.7138156157761119</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.214966433278437</v>
+        <v>0.1939722031204948</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.261541866933778</v>
+        <v>-0.244539076819557</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6859960656729971</v>
+        <v>-0.6979041908789327</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3783290693378059</v>
+        <v>0.3569033025362016</v>
       </c>
     </row>
     <row r="21">
@@ -1239,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7926221546606179</v>
+        <v>0.7584122596048477</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4502598185025746</v>
+        <v>0.3947172380703074</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.601468406440407</v>
+        <v>3.674814700458352</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8834322001814335</v>
+        <v>0.801414086766343</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1132895919058007</v>
+        <v>-0.1589142606936926</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.465048511765665</v>
+        <v>1.533421611259138</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5597344860782912</v>
+        <v>0.5519042161241926</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.182087026916013</v>
+        <v>-0.1962594108666782</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.586286065498076</v>
+        <v>1.625317793115783</v>
       </c>
     </row>
     <row r="22">
@@ -1293,7 +1297,7 @@
         <v>-0.7254528667083059</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.541404498514051</v>
+        <v>8.541404498514057</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.111695557979381</v>
@@ -1302,7 +1306,7 @@
         <v>-0.8838930655242314</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.088783560787999</v>
+        <v>6.088783560788001</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.865669898802167</v>
+        <v>-3.683429454950824</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.848970311260924</v>
+        <v>-2.992343683444894</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.029749202759092</v>
+        <v>0.9071802698670405</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.246226053961428</v>
+        <v>-3.310708172514436</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.704121296674901</v>
+        <v>-3.62675229392105</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.274692614097342</v>
+        <v>5.777598575173561</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.743779385739196</v>
+        <v>-2.789045223805064</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.567119010195314</v>
+        <v>-2.926632158319991</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.332510852191451</v>
+        <v>4.141283937281313</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.1919533243225927</v>
+        <v>-0.1848069605155152</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6668129864312269</v>
+        <v>0.7636533616438242</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.851345162588995</v>
+        <v>5.75429222633779</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.390308481295652</v>
+        <v>2.341268771873</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.083107242728372</v>
+        <v>2.170651166787645</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.12714204649151</v>
+        <v>11.44043907104294</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7205968312075077</v>
+        <v>0.482234912464773</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7414914907644765</v>
+        <v>0.6388017502431242</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.168317645916009</v>
+        <v>7.975288883436635</v>
       </c>
     </row>
     <row r="25">
@@ -1418,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8994552973606517</v>
+        <v>-0.8985442578887142</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7096988942325373</v>
+        <v>-0.7269616349357901</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.20679352728982</v>
+        <v>0.2064559939456527</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4294809834117637</v>
+        <v>-0.4489989636514906</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4798719609848304</v>
+        <v>-0.4660870204955479</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6793940317497672</v>
+        <v>0.7085234825760925</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5168381523312392</v>
+        <v>-0.5270653023606839</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4779250844210067</v>
+        <v>-0.5226693032712468</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.7705056407600738</v>
+        <v>0.746424341907901</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.03382662544514887</v>
+        <v>-0.008541393964734297</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4965426514480069</v>
+        <v>0.5229015111902161</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.236720447530392</v>
+        <v>3.209262636112423</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5234141802678907</v>
+        <v>0.4835923676746828</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4807627982130897</v>
+        <v>0.5111141368881482</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.53805655078334</v>
+        <v>2.544990684959648</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.228477386310285</v>
+        <v>0.1462195005815135</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2116865923975624</v>
+        <v>0.195618472422911</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.520405277656443</v>
+        <v>2.301626506091218</v>
       </c>
     </row>
     <row r="28">
@@ -1498,7 +1502,7 @@
         <v>-2.070637547715039</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.1315482688375391</v>
+        <v>-0.1315482688375405</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.6373119070292331</v>
@@ -1507,7 +1511,7 @@
         <v>1.518470348843331</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.795493781178729</v>
+        <v>6.795493781178733</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.954060555353166</v>
@@ -1516,7 +1520,7 @@
         <v>-0.2427018024030878</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.313403861649984</v>
+        <v>3.313403861649986</v>
       </c>
     </row>
     <row r="29">
@@ -1527,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.196041244903751</v>
+        <v>-6.189898237147845</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.749203135074536</v>
+        <v>-5.196537639793546</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.12251578036655</v>
+        <v>-3.063004689824528</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.257127028293168</v>
+        <v>-3.64292963214967</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.857576484937014</v>
+        <v>-1.620020763456906</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.430028460363519</v>
+        <v>3.636477329892449</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.850807107863782</v>
+        <v>-3.867561663639976</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.340970349849997</v>
+        <v>-2.263882823151306</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.471508965048197</v>
+        <v>1.089886187651352</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.306535923056888</v>
+        <v>-1.277423804318795</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4352608960687717</v>
+        <v>0.3026847696142281</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.297244116182353</v>
+        <v>2.30157106422183</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.61173637710652</v>
+        <v>2.38390619144675</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.994593043758292</v>
+        <v>5.081617704698605</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.79536852357759</v>
+        <v>9.779768940699388</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1824728163956459</v>
+        <v>-0.07268952552780519</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.905722196538926</v>
+        <v>2.001009661240095</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.551675892399166</v>
+        <v>5.121071812235114</v>
       </c>
     </row>
     <row r="31">
@@ -1603,7 +1607,7 @@
         <v>-0.4791673115505894</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.03044165329058955</v>
+        <v>-0.03044165329058987</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.1151945667980705</v>
@@ -1621,7 +1625,7 @@
         <v>-0.04912857848831601</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6707112187416109</v>
+        <v>0.6707112187416111</v>
       </c>
     </row>
     <row r="32">
@@ -1632,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9370798109373043</v>
+        <v>-0.9524432689296611</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7860429644049718</v>
+        <v>-0.8026147261465513</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4868577523245201</v>
+        <v>-0.5007872977979636</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4711701866721268</v>
+        <v>-0.4987435316120172</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.298875814411204</v>
+        <v>-0.2415479779448738</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4240312979091127</v>
+        <v>0.4552704623525947</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.6494242259467221</v>
+        <v>-0.6435044648697787</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3849647019945368</v>
+        <v>-0.3759534188877561</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.218299775444676</v>
+        <v>0.1573881912556757</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.321543550992446</v>
+        <v>-0.2824928451111615</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3194369468469338</v>
+        <v>0.2318438895296266</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8390117355297817</v>
+        <v>0.8436339555939844</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7192377026971287</v>
+        <v>0.6621086811766362</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.302150721348744</v>
+        <v>1.322575557299425</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.705043041113697</v>
+        <v>2.566086452922025</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04662900362013985</v>
+        <v>0.006820639708049225</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.519760100355157</v>
+        <v>0.5467178373431058</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.518982019543807</v>
+        <v>1.349996425559441</v>
       </c>
     </row>
     <row r="34">
@@ -1712,7 +1716,7 @@
         <v>-1.310495472503782</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.8563058978157466</v>
+        <v>0.856305897815746</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-0.7553460775399381</v>
@@ -1721,7 +1725,7 @@
         <v>-0.7602294133394263</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.650699737064991</v>
+        <v>1.650699737064989</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.128436230398779</v>
@@ -1730,7 +1734,7 @@
         <v>-1.06160136358122</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>1.174044762087593</v>
+        <v>1.174044762087594</v>
       </c>
     </row>
     <row r="35">
@@ -1741,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.824355800260022</v>
+        <v>-3.583327812875775</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.489201013876348</v>
+        <v>-3.431230334602939</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.245905984885458</v>
+        <v>-1.814750242119365</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.195765532277507</v>
+        <v>-4.48442820857958</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.176431413130248</v>
+        <v>-4.569235855120996</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.10567186715562</v>
+        <v>-1.66639722482279</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.307550951839248</v>
+        <v>-3.692248467754696</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.494713484776605</v>
+        <v>-3.27398663009001</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.086916471737081</v>
+        <v>-0.9394106682317691</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.5763803081139758</v>
+        <v>0.4072001294588499</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.6343453314049623</v>
+        <v>0.6262283724561201</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.11010860264586</v>
+        <v>2.974073365918845</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3.053583954847196</v>
+        <v>2.892310514443569</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.322395985795044</v>
+        <v>2.379763514954751</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.835569037639469</v>
+        <v>5.025458787361907</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.080747225349599</v>
+        <v>0.8203442774792905</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.9772268454604969</v>
+        <v>1.052090596331853</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.229267624924558</v>
+        <v>3.002560741984389</v>
       </c>
     </row>
     <row r="37">
@@ -1817,7 +1821,7 @@
         <v>-0.526756687552379</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.3441941370489449</v>
+        <v>0.3441941370489446</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.1048231374563647</v>
@@ -1826,7 +1830,7 @@
         <v>-0.1055008222884916</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2290758244235402</v>
+        <v>0.22907582442354</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.2241724918327364</v>
@@ -1835,7 +1839,7 @@
         <v>-0.210895234126728</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.2332329756439488</v>
+        <v>0.2332329756439489</v>
       </c>
     </row>
     <row r="38">
@@ -1849,28 +1853,28 @@
         <v>-1</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.9103116829048363</v>
+        <v>-0.9061763364887585</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3893386819228788</v>
+        <v>-0.493708347386945</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4675005604409928</v>
+        <v>-0.4971557356835204</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4698466310520144</v>
+        <v>-0.4867559886965934</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2218719713298609</v>
+        <v>-0.1802021911117629</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.5426339145624173</v>
+        <v>-0.569925823898192</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5484691647535667</v>
+        <v>-0.5264558014034886</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1696691866939367</v>
+        <v>-0.1537549099635296</v>
       </c>
     </row>
     <row r="39">
@@ -1881,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7808100212604948</v>
+        <v>0.7567040217111424</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.716055537625813</v>
+        <v>0.9942737561743785</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.595583604856992</v>
+        <v>2.180953456389522</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5531608163959709</v>
+        <v>0.5310148127929361</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6454293269415996</v>
+        <v>0.4328834337486581</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9758416702853761</v>
+        <v>1.02171974461926</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3068379633384436</v>
+        <v>0.2201011396240688</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3036438783240012</v>
+        <v>0.2994263688664043</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.8650210803598708</v>
+        <v>0.7830964988727059</v>
       </c>
     </row>
     <row r="40">
@@ -1955,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.634154221429564</v>
+        <v>-4.66259788035555</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.946564887372942</v>
+        <v>-2.926764007922816</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.69519028317015</v>
+        <v>-1.490300654998466</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.7041368269610274</v>
+        <v>-0.5028992015741872</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.505260932973016</v>
+        <v>1.4314076204194</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.462836660416319</v>
+        <v>3.364572161254705</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.280450952032408</v>
+        <v>-1.425813555691938</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.2792556737404909</v>
+        <v>0.4370330078819378</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.103220225239399</v>
+        <v>2.059604206055791</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.364179674153539</v>
+        <v>0.4077502400871759</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.255348891448771</v>
+        <v>2.786948312143893</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.940326496318256</v>
+        <v>4.155061950184004</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.159013189489554</v>
+        <v>6.694641166354601</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.092181353539337</v>
+        <v>9.11629293365657</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>9.402321007883081</v>
+        <v>9.065981464754708</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.207036068513883</v>
+        <v>3.141071207502852</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.661149723956643</v>
+        <v>5.607455382514201</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.367753036823294</v>
+        <v>6.453300316549326</v>
       </c>
     </row>
     <row r="43">
@@ -2059,30 +2063,32 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C44" s="6" t="inlineStr"/>
+      <c r="C44" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7374913893287909</v>
+        <v>-0.7293647362101424</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4513689460727328</v>
+        <v>-0.3748334399573746</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1937888351141334</v>
+        <v>-0.1359692711257994</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1896671456277498</v>
+        <v>0.1809659340685055</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5720715441206259</v>
+        <v>0.5499526856736494</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3233195759053543</v>
+        <v>-0.3746897303913757</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.006563251264612713</v>
+        <v>0.03165080931927666</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3769261871393926</v>
+        <v>0.4109922923187016</v>
       </c>
     </row>
     <row r="45">
@@ -2092,30 +2098,32 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C45" s="6" t="inlineStr"/>
+      <c r="C45" s="6" t="n">
+        <v>1.224824906053419</v>
+      </c>
       <c r="D45" s="6" t="n">
-        <v>2.654571894126924</v>
+        <v>2.72941486637673</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.230426487809194</v>
+        <v>4.300210896236768</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>3.081235348189424</v>
+        <v>4.0088046274976</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>4.579104019495578</v>
+        <v>4.661441508866506</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>5.006357538671046</v>
+        <v>4.510155926742302</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.527687426850882</v>
+        <v>1.33254471750666</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>2.631206775536565</v>
+        <v>2.475675300881315</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>3.113004205456871</v>
+        <v>3.147218574827193</v>
       </c>
     </row>
     <row r="46">
@@ -2145,7 +2153,7 @@
         <v>-0.2747297026142501</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>5.560531944133392</v>
+        <v>5.560531944133395</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.7976395069569875</v>
@@ -2154,7 +2162,7 @@
         <v>-0.6114475671145938</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>3.922075476606081</v>
+        <v>3.922075476606082</v>
       </c>
     </row>
     <row r="47">
@@ -2165,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.861807972096228</v>
+        <v>-1.82676206729858</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.668570563628703</v>
+        <v>-1.721496384345382</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.222842597644031</v>
+        <v>1.216300183103215</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.524428837184474</v>
+        <v>-1.431673208833506</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.39432021205168</v>
+        <v>-1.348069909886904</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>4.365509299080435</v>
+        <v>4.309026225195145</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.478436190713938</v>
+        <v>-1.423563423626848</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.280586348785991</v>
+        <v>-1.259459109570519</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>3.142831835625874</v>
+        <v>3.125984444100368</v>
       </c>
     </row>
     <row r="48">
@@ -2200,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.5258186368196953</v>
+        <v>-0.4995453562121528</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.302007183058819</v>
+        <v>-0.3495595054318212</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.13023041927194</v>
+        <v>3.015326277076642</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.7120528617148562</v>
+        <v>0.7481717109130649</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.8318070751301946</v>
+        <v>0.7973596829538033</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.720808968090984</v>
+        <v>6.733492784066965</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.1474531351638777</v>
+        <v>-0.1621380881410046</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.0536074035613584</v>
+        <v>0.0563703858291805</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.750508626997241</v>
+        <v>4.69157994627459</v>
       </c>
     </row>
     <row r="49">
@@ -2250,7 +2258,7 @@
         <v>-0.04763289115219851</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.9640901960103178</v>
+        <v>0.9640901960103183</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.1942000396714633</v>
@@ -2259,7 +2267,7 @@
         <v>-0.1488681801177096</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.954901564564112</v>
+        <v>0.9549015645641123</v>
       </c>
     </row>
     <row r="50">
@@ -2270,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6632572227453066</v>
+        <v>-0.6469558193659449</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5864887559027333</v>
+        <v>-0.5985093568700395</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.4105623856405544</v>
+        <v>0.4153727965714087</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2477183773832455</v>
+        <v>-0.2300365525401592</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2197193349954492</v>
+        <v>-0.2163198626312338</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.6898520190668137</v>
+        <v>0.6747083667264735</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3301731520051614</v>
+        <v>-0.3206505097638545</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2848973510030631</v>
+        <v>-0.281724802623603</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.6994928907849443</v>
+        <v>0.6950635297388281</v>
       </c>
     </row>
     <row r="51">
@@ -2305,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2500143374350113</v>
+        <v>-0.2304075557297869</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1374876678257789</v>
+        <v>-0.1405638890072482</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.481908134798763</v>
+        <v>1.485482073053837</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1431219113019396</v>
+        <v>0.1469955581464062</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1596079863449956</v>
+        <v>0.1509171469437261</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.320781424020667</v>
+        <v>1.30521017874595</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.04099131099691473</v>
+        <v>-0.04333589602832195</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.01556491326214574</v>
+        <v>0.01344714273321715</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.271084844346914</v>
+        <v>1.240622737229634</v>
       </c>
     </row>
     <row r="52">
